--- a/Assets/ConfigExcel/cs_CardInfo.xlsx
+++ b/Assets/ConfigExcel/cs_CardInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GameCreate\CardsRogueLike\Assets\ConfigExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198F8BC9-8A94-41AA-80B5-2CA5302F9C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A59319F-E2D7-42BE-87D3-214E3C485781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="2160" windowWidth="23040" windowHeight="12660" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5448" yWindow="2676" windowWidth="23040" windowHeight="12660" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@uiPanel" sheetId="1" r:id="rId1"/>
@@ -42,44 +42,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>elfox</author>
-  </authors>
-  <commentList>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{6B997F8C-4116-4A65-97A1-173EEDC8D812}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>elfox:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-动画攻击时间（*100）</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,13 +101,73 @@
   </si>
   <si>
     <t>BaseAddition</t>
+  </si>
+  <si>
+    <t>CardSprite_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardSprite_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardSprite_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectNames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DealDamageEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrengthBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加{0}点力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,21 +181,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -208,15 +217,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -562,7 +571,7 @@
     <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -599,8 +608,14 @@
       <c r="L2" t="s">
         <v>7</v>
       </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -637,21 +652,155 @@
       <c r="L3" t="s">
         <v>14</v>
       </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
